--- a/03.crawler/03.eBay/file/3.part/crawler_1.xlsx
+++ b/03.crawler/03.eBay/file/3.part/crawler_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,57 +446,72 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Picture</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Url</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Market</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Picture</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Url</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Subtitle</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Store Name</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Store Url</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Json_Src</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Description Url</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Subtitle</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Json_Quantity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Json_Price</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Json_Specific</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Json_Compatibility</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Json_Specific</t>
         </is>
       </c>
     </row>
@@ -506,54 +521,69 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>253139036562</t>
+          <t>255410646663</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>A/C Compressor Fits 1989-1997 Toyota Corolla 1.6L 1.8L</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>US $97.82/ea</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/255410646663?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>US</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>A/C Compressor Fits 2001 2002 2003-2007 Dodge Chrysler Town &amp;amp; Country 3.3L 3.8L</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>US $106.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/253139036562?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/g~MAAOSwEIBjXPwk/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/0TgAAOSwBdhjXPwl/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/6QIAAOSwuSRjXPwm/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/8F8AAOSwKX1jXPwn/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/YLMAAOSwD1JjXPwo/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/VW4AAOSwAUtjXPwp/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/C2QAAOSws~ZjXPwq/s-l500.jpg"}</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/253139036562?t=1722937352000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>SCITOO-AutoParts</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/str/cnbatteries</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"0": "Last one", "1": "61 sold"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/QzUAAOSwQTxisYmS/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/Rq0AAOSwhhZisYmT/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/ZKAAAOSwKr5isYmT/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/ptUAAOSwWedisYmU/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/xEYAAOSwyFFisYmU/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/xEkAAOSwyFFisYmV/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/R-gAAOSwANFisYmW/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/3nsAAOSwHrVisYmW/s-l500.jpg", "8": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 7, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "253139036562", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/255410646663?t=1729598763000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "611040278986"}, "4": {"Manufacturer Part Number": "CB104TE013S14"}, "5": {"Interchange Part Number": "CO 29001C,5005440AA,5005440AA,"}, "6": {"Other Part Number": "5005440AC,5005441,5005441AC,5005441AD"}, "7": {"Compressor type": "10S20H"}, "8": {"Voltage": "12V"}, "9": {"Fitment Type": "Direct Replacement"}, "10": {"Type": "A/C Compressor"}, "11": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "12": {"Pulley Groove Quantity": "6"}, "13": {"Pulley Diameter": "130"}}</t>
+          <t>{"0": "More than 10 available", "1": "17 sold"}</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>{"0": "Buy 1 for $97.82", "1": "Buy 2 for $95.86 each one", "2": "Buy 3 for $93.91 each one", "3": "Buy 4 for $91.95 each one"}</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"Manufacturer Part Number": "CB130DA984S11"}, "4": {"UPC": "Does not apply"}, "5": {"Interchange Part Number": "CO 11099C"}, "6": {"Other Part Number": "1520961,1521991,10309140,10309141,10344181,1011099"}, "7": {"Superseded Part Number": "1111099,1211099,618397,4471003430,4711169,67318,68318"}, "8": {"Pulley Diameter": "149"}, "9": {"Pulley Groove Quantity": "4"}, "10": {"Compressor type": "10PA15E"}, "11": {"Voltage": "12V"}, "12": {"Fitment Type": "Direct Replacement"}, "13": {"Type": "A/C Compressor"}, "14": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "15": {"Surface Finish": "Painted"}, "16": {"Oil Type": "Pag 46"}}</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>{"page": 6, "market_place_id": "EBAY-US", "item_id": "255410646663", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -563,54 +593,69 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>255922672592</t>
+          <t>335270737835</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>AC A/C Compressor for Chrysler 300 Dodge Challenger Charger 5.7L 2011-2013</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>US $140.97/ea</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/335270737835?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>US</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>A/C AC Compressor W/Clutch For 2001-2007 Ford Taurus 2001-2005 Mercury Sable 3.0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>US $99.70/ea</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/255922672592?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/5KsAAOSw63VjvuUk/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/3PcAAOSwCBFjvuUk/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/z-0AAOSwdG5jvuUl/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/2dwAAOSwrxNjvuUl/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/sGsAAOSwc0ljvuUm/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/cxYAAOSwqJ9jvuUn/s-l500.jpg"}</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/255922672592?t=1724811981000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>SCITOO-AutoParts</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/str/cnbatteries</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{"0": "5 available", "1": "4 sold"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/x-UAAOSwNi1l2ABO/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/-CIAAOSwNXZl2ABR/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/tlIAAOSwa1Rl2ABU/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/Z2gAAOSweHll2ABX/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/G4EAAOSw6HVl2ABc/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/VV4AAOSwqEZl2ABf/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/PUgAAOSwAuhl2ABj/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 6, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "255922672592", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/335270737835?t=1728370358000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "611040242253"}, "4": {"Manufacturer Part Number": "CB104TE034S11"}, "5": {"Interchange Part Number": "CO 103090C"}, "6": {"Other Part Number": "57168,143034,143034C"}, "7": {"Superseded Part Number": "143034NC,1460N,0610102,600595C"}, "8": {"Compressor type": "FS10"}, "9": {"Voltage": "12V"}, "10": {"Fitment Type": "Direct Replacement"}, "11": {"Type": "A/C Compressor"}, "12": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "13": {"Pulley Groove Quantity": "6"}, "14": {"Oil Type": "PAG 100"}}</t>
+          <t>{"0": "More than 10 available", "1": "10 sold"}</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>{"0": "Buy 1 for $140.97", "1": "Buy 2 for $138.15 each one", "2": "Buy 3 for $136.74 each one", "3": "Buy 4 for $133.92 each one"}</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Part Number": "CB175SCTU970S14"}, "3": {"Manufacturer Warranty": "1 Year"}, "4": {"UPC": "Does not apply"}, "5": {"Interchange Part Number": "CO 30014C,68028917AB, 68028917AC, 68028917AD"}, "6": {"Superseded Part Number": "R8028917AB, RL028917AB, RL028917AC,68202994AA"}, "7": {"Pulley Groove Quantity": "6"}, "8": {"Type": "A/C Compressor"}, "9": {"Voltage": "12V"}, "10": {"Compressor type": "10SRE18C"}, "11": {"Fitment Type": "Direct Replacement"}, "12": {"OE/OEM Part Number": "68028917AE, 68028917AB,98314, 97314"}}</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>{"page": 9, "market_place_id": "EBAY-US", "item_id": "335270737835", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -620,54 +665,69 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>235653299500</t>
+          <t>232315264904</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>AC A/C Compressor For 2004 2005 2006 Mitsubishi Outlander Lancer CO 10845AC 2.4L</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>US $100.68/ea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/232315264904?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>US</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>AC A/C Compressor for Chevrolet Malibu 3.5L 2004-2006 Pontiac G6 3.5L 2005-2006</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>US $106.83/ea</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/235653299500?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/2OUAAOSwv1FmlIGL/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/4ZMAAOSw2QVmlIGO/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/S~MAAOSwoLFmlIGR/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/vLUAAOSwofxmlIGU/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/3TsAAOSweYBmlIGW/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/N~EAAOSw9ipmlIGZ/s-l500.jpg"}</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/235653299500?t=1723535786000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>SCITOO-AutoParts</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/str/cnbatteries</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{"0": "More than 10 available", "1": "4 sold"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/404AAOSwR5VisXTT/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/6hEAAOSw4MlisXTU/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/o60AAOSwhtlisXTU/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/9g8AAOSw63lisXTV/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/pWwAAOSw59lisXTV/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 1, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "235653299500", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/232315264904?t=1728370349000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Part Number": "CB175SCTU874S06"}, "3": {"Manufacturer Warranty": "1 Year"}, "4": {"UPC": "Does not apply"}, "5": {"Interchange Part Number": "25978333, 89019332"}, "6": {"Superseded Part Number": "CO 21520C"}, "7": {"Pulley Groove Quantity": "6"}, "8": {"Type": "A/C Compressor"}, "9": {"Pulley Diameter (mm)": "110"}, "10": {"Mounting Style": "Bolt-On"}, "11": {"Compressor Drive Type": "Belt Driven"}, "12": {"OE/OEM Part Number": "25978333, 89019332"}}</t>
+          <t>{"0": "More than 10 available", "1": "87 sold"}</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>{"0": "Buy 1 for $100.68", "1": "Buy 2 for $98.67 each one", "2": "Buy 3 for $97.66 each one", "3": "Buy 4 for $95.65 each one"}</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "611040243564"}, "4": {"Manufacturer Part Number": "CB104TE056S09"}, "5": {"Interchange Part Number": "CO 10845AC"}, "6": {"Other Part Number": "MN185237,MR513148, 77495, 6512196, 6512355"}, "7": {"Superseded Part Number": "78495, 10350931, 1010845, 638912, 77494"}, "8": {"Compressor type": "MSC105"}, "9": {"Voltage": "12V"}, "10": {"Fitment Type": "Direct Replacement"}, "11": {"Type": "A/C Compressor"}, "12": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "13": {"Oil Type": "PAG 46"}, "14": {"Pulley Groove Quantity": "6"}, "15": {"Clutch Diameter(mm)": "95"}, "16": {"Surface Finish": "Painted"}}</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>{"page": 2, "market_place_id": "EBAY-US", "item_id": "232315264904", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -677,54 +737,69 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>255586148611</t>
+          <t>235748987359</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>A/C Compressor Fits 2009-2011 2012 Honda Accord 12-15 Crosstour 2.4L CO 11224C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>US $103.72/ea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/235748987359?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>US</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>A/C AC Compressor W/Clutch For Honda CR-V CRV 2002-2005 2006 2.4L 10663AC</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>US $118.54</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/255586148611?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/WhgAAOSwG81lETIk/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/wsAAAOSwCQ9lETIl/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/nuAAAOSwA7hlETIm/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/VfgAAOSwvfFlETIn/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/6tgAAOSwjpdlETIo/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/odEAAOSwH8ZlETIp/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/f14AAOSwiwBlETIq/s-l500.jpg"}</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/255586148611?t=1727078210000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>SCITOO-AutoParts</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/str/cnbatteries</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{"0": "More than 10 available", "1": "110 sold"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/qRIAAOSwapJm6jDx/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/TIEAAOSw39hm6jD0/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/VpkAAOSwy~dm6jD3/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/Wq0AAOSwz7Bm6jD6/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/oYcAAOSwN3hm6jD8/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/WPsAAOSwzqpm6jD~/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 1, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "255586148611", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/235748987359?t=1728980195000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"Manufacturer Part Number": "CB104TE000S01"}, "4": {"UPC": "611040240013"}, "5": {"Interchange Part Number": "CO 10663AC, 2041612,57881"}, "6": {"Other Part Number": "38810PNB006,38810-PNB-006,255467,58881,638951,2041612"}, "7": {"Superseded Part Number": "140092NC,140092NEW,1522110,2011242,58881, 6511495"}, "8": {"Oil Type": "Pag 46"}, "9": {"Pulley Grooves": "7"}, "10": {"Voltage": "12V"}, "11": {"Pulley Diameter": "98"}, "12": {"Type": "A/C Compressor"}, "13": {"Compressor Type": "HS110R"}, "14": {"Material": "Aluminum"}}</t>
+          <t>{"0": "More than 10 available", "1": "3 sold"}</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>{"0": "Buy 1 for $103.72", "1": "Buy 2 for $101.65 each one", "2": "Buy 3 for $100.61 each one", "3": "Buy 4 for $98.53 each one"}</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"Manufacturer Part Number": "CB174TE847S05"}, "4": {"UPC": "Does not apply"}, "5": {"Interchange Part Number": "CO 11224C,38810R40A01, 38810-R40-A01"}, "6": {"Superseded Part Number": "447260-6960"}, "7": {"Oil Type": "PAG 46"}, "8": {"Compressor type": "10SR15C"}, "9": {"Fitment Type": "Direct Replacement"}, "10": {"Type": "Compressor &amp; Clutch Assembly"}, "11": {"Pulley Groove Quantity": "7"}, "12": {"Pulley Diameter": "130"}}</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>{"page": 3, "market_place_id": "EBAY-US", "item_id": "235748987359", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -734,54 +809,69 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>233621258535</t>
+          <t>252900220689</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>AC A/C Compressor For 98-06 Mercedes- Benz For Dodge Chrysler Models CO 105111C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>US $112.56/ea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/252900220689?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>US</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>A/C Compressor Fits 90-05 Honda Civic 90-01 Acura Integra 1.7L 1.8L</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>US $111.33/ea</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/233621258535?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/EW8AAOSwSlhj9bne/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/7NsAAOSwEvFj9bnj/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/bBEAAOSwLmRj9bnk/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/O-AAAOSw1EJj9bnk/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/~ysAAOSw-9xj9bnl/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/884AAOSwHCtj9bnl/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/FoUAAOSwxzZj9bnm/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/kEEAAOSwM5Rj9bnm/s-l500.jpg"}</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/233621258535?t=1726366623000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>SCITOO-AutoParts</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/str/cnbatteries</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{"0": "More than 10 available", "1": "77 sold"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/mbcAAOSwK-ZkwjoE/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/GscAAOSwSRNkwjoF/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/cNYAAOSw3YRkwjoG/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/Gh8AAOSwZl5kwjoH/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/lY0AAOSwTK9kwjoI/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/EEgAAOSwKfFkwjoJ/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/gKcAAOSwU-pkwjoJ/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 8, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "233621258535", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/252900220689?t=1728374291000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"Manufacturer Part Number": "CB130DA983S04"}, "4": {"UPC": "Does not apply"}, "5": {"Interchange Part Number": "CO21011C, 6511599, 7511599, 4711424, 4711422"}, "6": {"Other Part Number": "1520842,1520962,38800P2T0131,38800PR4A02,38810P9KE01"}, "7": {"Superseded Part Number": "97335,98335,2041525,5511599,6511599,7511599,254357"}, "8": {"Pulley Groove Quantity": "4"}, "9": {"Pulley Diameter": "12"}, "10": {"Compressor type": "10PA15C"}, "11": {"Voltage": "12V"}, "12": {"Fitment Type": "Direct Replacement"}, "13": {"Type": "A/C Compressor"}, "14": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "15": {"Surface Finish": "painted"}, "16": {"Oil Type": "Pag 46"}}</t>
+          <t>{"0": "More than 10 available", "1": "188 sold"}</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>{"0": "Buy 1 for $112.56", "1": "Buy 2 for $110.31 each one", "2": "Buy 3 for $109.18 each one", "3": "Buy 4 for $106.93 each one"}</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "611040241584"}, "4": {"Manufacturer Part Number": "CB104TE023S24"}, "5": {"Interchange Part Number": "CO 105111C"}, "6": {"Other Part Number": "5097010AA,00023-02011"}, "7": {"Superseded Part Number": "2369,0610045,21635,21635N,6001188,6001250,6021518,C1247"}, "8": {"Grooves": "6"}, "9": {"Pulley Diameter": "119"}, "10": {"Compressor type": "SD7SB16C"}, "11": {"Type": "Compressor &amp; Clutch Assembly"}, "12": {"Material": "Aluminum Alloy"}}</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>{"page": 15, "market_place_id": "EBAY-US", "item_id": "252900220689", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -791,54 +881,69 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>332388018897</t>
+          <t>235461387733</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>AC A/C Compressor For 2003-2009 Chevrolet Trailblazer GMC Envoy 4.2L CO 4910AC</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>US $108.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/235461387733?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>US</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>For 2006-2012 Mitsubishi Eclipse 2.4L Endeavor Galant 3.8L A/C AC Compressor</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>US $114.58/ea</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/332388018897?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/XX4AAOSwQ8tj-CDc/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/5MkAAOSwLGxj-CDc/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/0cEAAOSwVxNj-CDd/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/Hj4AAOSwcqBj-CDd/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/xdEAAOSwRCRj-CDe/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/F4QAAOSwy6Fj-CDe/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/jL8AAOSwuGFj-CDf/s-l500.jpg"}</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/332388018897?t=1724984353000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>SCITOO-AutoParts</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/str/cnbatteries</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{"0": "10 available", "1": "32 sold"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/sakAAOSwro9l53Xt/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/23cAAOSwbVFl53Xu/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/GP4AAOSw3ctl53Xv/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/jQgAAOSwqtdl53Xw/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/BzAAAOSw1bVl53Xx/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/hEUAAOSwTSJl53Xy/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/n-oAAOSw005l53X0/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 3, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "332388018897", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/235461387733?t=1728370871000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "688209047592"}, "4": {"Manufacturer Part Number": "CB104TE087S14"}, "5": {"Interchange Part Number": "CO 10773T,10350871,1010773,1210773,638916,638916"}, "6": {"Other Part Number": "77493,78493,5511500,7813A325,MR958858,6511500,7511500"}, "7": {"Pulley Groove Quantity": "6"}, "8": {"Pulley Diameter": "95"}, "9": {"Fitment Type": "Direct Replacement"}, "10": {"Type": "Compressor &amp; Clutch Assembly"}}</t>
+          <t>{"0": "More than 10 available", "1": "32 sold"}</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "611040278818"}, "4": {"Manufacturer Part Number": "CB104TE010S11"}, "5": {"Interchange Part Number": "CO4910AC,25825339, 25825341, 6511418, 77561, 254427"}, "6": {"Other Part Number": "10344880, 10349190, 10349191, 1099655, 1099686, 1099716,"}, "7": {"Grooves": "6"}, "8": {"Pulley Diameter (mm)": "106"}, "9": {"Oil Type": "PAG 46"}, "10": {"Type": "A/C Compressor"}, "11": {"Pulley Groove Quantity": "6"}, "12": {"Pulley Diameter": "106"}, "13": {"Material": "Aluminum Alloy"}}</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>{"page": 5, "market_place_id": "EBAY-US", "item_id": "235461387733", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -848,54 +953,69 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>256421824484</t>
+          <t>235544392154</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>AC A/C Compressor for Cadillac SRX 3.6L 2004-2009 New 04 05 06 07 08 09</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>US $110.18/ea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/235544392154?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>US</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>AC A/C Compressor for Acura CL TL 3.2L 2001-2003 for Honda Accord 3.0L 2001-2002</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>US $109.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/256421824484?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/m~QAAOSwS1pl1~7i/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/43EAAOSw84Rl1~7l/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/z88AAOSwAbtl1~7p/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/v7UAAOSwWgpl1~7r/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/PYwAAOSwNZdl1~7u/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/wqkAAOSwinll1~7x/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/cVwAAOSwy5Fl1~70/s-l500.jpg"}</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/256421824484?t=1727058621000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>SCITOO-AutoParts</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/str/cnbatteries</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{"0": "10 available", "1": "5 sold"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/2ZoAAOSwgzNmMXvj/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/VCsAAOSw3OZmMXvl/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/~BQAAOSwI0JmMXvo/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/nWwAAOSwzldmMXvr/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/UuIAAOSwMWhmMXvt/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/j2EAAOSwtrdmMXvw/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/VJUAAOSwWFVmMXvz/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 2, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "256421824484", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/235544392154?t=1728370530000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Part Number": "CB175SCTU931S20"}, "3": {"Manufacturer Warranty": "1 Year"}, "4": {"UPC": "Does not apply"}, "5": {"Interchange Part Number": "38810P8EA01"}, "6": {"Superseded Part Number": "CO 10520C"}, "7": {"Pulley Groove Quantity": "6"}, "8": {"Type": "A/C Compressor"}, "9": {"OE/OEM Part Number": "CO 10520C,38810P8EA01"}}</t>
+          <t>{"0": "More than 10 available", "1": "4 sold"}</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>{"0": "Buy 1 for $110.18", "1": "Buy 2 for $107.98 each one", "2": "Buy 3 for $106.87 each one", "3": "Buy 4 for $104.67 each one"}</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Part Number": "CB176SCTU013S31"}, "3": {"Manufacturer Warranty": "1 Year"}, "4": {"UPC": "Does not apply"}, "5": {"Pulley Diameter": "110 mm"}, "6": {"Interchange Part Number": "CO 21225C,19130463, 10368632, 89023455"}, "7": {"Superseded Part Number": "89025025, 97337, 98337, 471-0713"}, "8": {"Pulley Groove Quantity": "6"}, "9": {"Type": "A/C Compressor"}, "10": {"Other Part Number": "10368632, 89023455, 89025025"}, "11": {"OE/OEM Part Number": "CO 21225C"}}</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>{"page": 1, "market_place_id": "EBAY-US", "item_id": "235544392154", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -905,54 +1025,69 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>334041367847</t>
+          <t>256469386720</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>A/C AC Compressor For 2004-2008 Dodge Ram 1500 2500 3500 4000 5.7L 10S17E 77398</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>US $124.92/ea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/256469386720?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>US</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>For 10-13 Acura MDX ZDX 09-15 Honda Odyssey Pilot Ridgeline A/C Compressor</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>US $112.98</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/334041367847?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/Yt4AAOSwTxRju3NE/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/ihwAAOSwwo5ju3NG/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/5EAAAOSwZZ9ju3NI/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/uLYAAOSwA7Bju3NL/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/NwIAAOSwlEtju3NO/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/km0AAOSw7Khju3NQ/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/GGcAAOSwJ~tju3NT/s-l500.jpg"}</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/334041367847?t=1726890203000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>SCITOO-AutoParts</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/str/cnbatteries</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{"0": "10 available", "1": "16 sold"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/pRcAAOSwf39mD2wj/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/jhgAAOSwI1pmD2wm/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/ZFAAAOSwS1JmD2wp/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/6PoAAOSwZsBmD2ws/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/9qgAAOSwIH5mD2wu/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/~eoAAOSwY3RmD2wx/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/7xoAAOSwL0xmD2w0/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 13, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "334041367847", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/256469386720?t=1728370434000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "688209069891"}, "4": {"Manufacturer Part Number": "CB104TE135S09"}, "5": {"Interchange Part Number": "CO 10840C"}, "6": {"Other Part Number": "157334,158334,5512491,6512491,TEM255315,C1795R"}, "7": {"Superseded Part Number": "38810RGLA02,10362850,10362851,639365"}, "8": {"Pulley Groove Quantity": "6"}, "9": {"Compressor type": "10SR17C"}, "10": {"Pulley Diameter": "135"}, "11": {"Fitment Type": "Direct Replacement"}, "12": {"Type": "A/C Compressor"}, "13": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "14": {"Voltage": "12V"}, "15": {"Oil Type": "PAG 46"}}</t>
+          <t>{"0": "More than 10 available", "1": "8 sold"}</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>{"0": "Buy 1 for $124.92", "1": "Buy 2 for $122.42 each one", "2": "Buy 3 for $121.17 each one", "3": "Buy 4 for $118.67 each one"}</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"Manufacturer Part Number": "SC17757IT004TU"}, "4": {"UPC": "Does not apply"}, "5": {"Interchange Part Number": "CO 10802C,C1422,C1422R,10000667,4710398,77398,78398"}, "6": {"Other Part Number": "6001238,6021325,1418N,0610084,22773,6511694,7511694"}, "7": {"Superseded Part Number": "2011277R,140132,140132C,140132NC,2011277,2011277AM"}, "8": {"Reference OE Part Number": "252401,275644,TEM252401,TEM275644,638848,1110802,1210802"}, "9": {"Type": "A/C Compressor"}, "10": {"Oil Type": "Pag 46"}, "11": {"Grooves": "7"}, "12": {"Pulley Diameter (mm)": "130"}, "13": {"Fitment Type": "Direct Replacement"}, "14": {"Kit Parts Included": "A/C Compressor W/Clutch"}}</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>{"page": 11, "market_place_id": "EBAY-US", "item_id": "256469386720", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -962,54 +1097,69 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>256102649999</t>
+          <t>334348192867</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>AC Compressor For 2000-2003 GMC Isuzu 1998-2003 Chevrolet S10 2.2L  CO 20446C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>US $101.26/ea</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/334348192867?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>US</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>A/C Compressor For 2002-2007 Chrysler Town &amp;amp; Country Dodge Caravan 3.3L 3.8L</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>US $106.17/ea</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/256102649999?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/io8AAOSwe29kgJ1e/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/MO8AAOSw5phkgJ1g/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/3aUAAOSwl4NkgJ1j/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/n3wAAOSwH8hkgJ1m/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/FIQAAOSwtjVkgJ1p/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/~YcAAOSwDMZkgJ1s/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/dTAAAOSwNLNkgJ1v/s-l500.jpg"}</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/256102649999?t=1722937626000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>SCITOO-AutoParts</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/str/cnbatteries</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{"0": "5 available", "1": "35 sold"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/d60AAOSwJnJj5M12/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/zfUAAOSwj6Zj5M13/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/7iMAAOSw-2lj5M14/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/6xkAAOSwNlRj5M15/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/DdUAAOSwpDJj5M16/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/Pm8AAOSwJv5j5M17/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/25UAAOSwK9Nj5M18/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 3, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "256102649999", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/334348192867?t=1727354812000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "Does not apply"}, "4": {"Manufacturer Part Number": "CB104TE013S14-1"}, "5": {"Interchange Part Number": "CO 29001C,5005440AA-1,"}, "6": {"Other Part Number": "5005440AC-2,5005441-2,5005441AC-2,5005441AD"}, "7": {"Compressor type": "10S20H"}, "8": {"Voltage": "12V"}, "9": {"Fitment Type": "Direct Replacement"}, "10": {"Type": "A/C Compressor"}, "11": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "12": {"Pulley Groove Quantity": "6"}, "13": {"Pulley Diameter": "130"}}</t>
+          <t>{"0": "More than 10 available", "1": "34 sold"}</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>{"0": "Buy 1 for $101.26", "1": "Buy 2 for $99.23 each one", "2": "Buy 3 for $98.22 each one", "3": "Buy 4 for $96.20 each one"}</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "688209070194"}, "4": {"Manufacturer Part Number": "CB104TE140S14"}, "5": {"Interchange Part Number": "CO 20446C"}, "6": {"Other Part Number": "620446,4719178,67291,68291,2010857C,C455R,010332,6511394"}, "7": {"Superseded Part Number": "1137024, 89018955,1520446,DW67291,10306420"}, "8": {"Pulley Groove Quantity": "6"}, "9": {"Compressor type": "V7"}, "10": {"Pulley Diameter": "125"}, "11": {"Fitment Type": "Direct Replacement"}, "12": {"Type": "A/C Compressor"}, "13": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "14": {"Oil Type": "PAG 150"}, "15": {"Voltage": "12V"}, "16": {"Surface Finish": "Painted"}}</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>{"page": 6, "market_place_id": "EBAY-US", "item_id": "334348192867", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -1019,54 +1169,69 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>256202118103</t>
+          <t>232479816006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>AC A/C Compressor For 01-10 Chrysler PT Cruiser 2.4L 03-05 Dodge Neon 2.0L 2.4L</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>US $100.11/ea</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/232479816006?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>US</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>A/C Compressor For 2007-2015 Honda Civic CR-V Acura ILX RDX 2.3L 2.4L CO 4920AC</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>US $119.19/ea</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/256202118103?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/1bwAAOSwv~Nk8A0A/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/S~cAAOSwTpdk8A0B/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/6dEAAOSwdEtk8A0C/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/-34AAOSweedk8A0D/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/BIwAAOSwVNdk8A0E/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/iDYAAOSwaxZk8A0F/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/WHQAAOSwwbdk8A0F/s-l500.jpg"}</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/256202118103?t=1722937658000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>SCITOO-AutoParts</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/str/cnbatteries</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{"0": "8 available", "1": "7 sold"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/kgsAAOSwTXRj9sZS/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/hYMAAOSwxzZj9sZS/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/7JwAAOSwTb1j9sZT/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/nzoAAOSw-aNj9sZT/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/3EcAAOSwxjlj9sZU/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.com/g/api/finders", "page": 3, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33543", "itemId": "256202118103", "marketplaceId": "EBAY-US", "sellerName": "scitoo-autoparts"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/232479816006?t=1727349011000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "611040241461"}, "4": {"Manufacturer Part Number": "CB104TE021S22"}, "5": {"Interchange Part Number": "CO 4920AC"}, "6": {"Other Part Number": "6512639, 38810RZYA01,38810-RWC-A03"}, "7": {"Superseded Part Number": "5512639,5512712,5513098,6512639,6512712,6513098,7512639"}, "8": {"Fitment Type": "Direct Replacement"}, "9": {"Pulley Groove Quantity": "7"}, "10": {"Pulley Diameter(mm)": "106"}}</t>
+          <t>{"0": "More than 10 available", "1": "56 sold"}</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>{"0": "Buy 1 for $100.11", "1": "Buy 2 for $98.11 each one", "2": "Buy 3 for $97.11 each one", "3": "Buy 4 for $95.10 each one"}</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>{"0": {"Condition": "New other (see details)"}, "1": {"Seller Notes": "\u201cTransaxle: 5Speed Standard-Mfr: Chrysler(A578)- Electric\u201d"}, "2": {"Brand": "SCITOO"}, "3": {"Manufacturer Warranty": "1 Year"}, "4": {"UPC": "611040242185"}, "5": {"Manufacturer Part Number": "CB104TE033S10"}, "6": {"Interchange Part Number": "CO 27001C,5058067AC,5058163,R5058032AC,RL058032AC"}, "7": {"Other Part Number": "RL058036AD,RL058163AD,CO 27001C,77387,78387,10345650"}, "8": {"Reference OE Part Number": "639301,67338,68338,77399,78399,2041613,1424,700740"}, "9": {"Superseded Part Number": "RL058032AC,5511514,252403,2011293,145044C,0610119"}, "10": {"Pulley Groove Quantity": "4"}, "11": {"Oil Type": "Pag 46"}, "12": {"Kit Parts Included": "A/C Compressor W/Cluth"}, "13": {"Compressor Type": "Nippondenso 10S15C"}, "14": {"Voltage": "12V"}, "15": {"Pulley Diameter": "130"}, "16": {"Type": "A/C Compressor"}}</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>{"page": 7, "market_place_id": "EBAY-US", "item_id": "232479816006", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
